--- a/Dataset variables explainer.xlsx
+++ b/Dataset variables explainer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fa5a23b36241b54/MBB/Incidental Emotions/Writing/IncEmo (2024^J Comm Psych)/MoodChoicePhysiology2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rheerema\Documents\MATLAB\MoodChoicePhysiology2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3CE59-E3B6-4E51-94D0-2C5254A40672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="9510" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="trialinfo" sheetId="1" r:id="rId1"/>
-    <sheet name="calibration" sheetId="4" r:id="rId2"/>
-    <sheet name="affect" sheetId="2" r:id="rId3"/>
-    <sheet name="pupil" sheetId="3" r:id="rId4"/>
+    <sheet name="AllData.trialinfo" sheetId="1" r:id="rId1"/>
+    <sheet name="AllData.calibration" sheetId="4" r:id="rId2"/>
+    <sheet name="AllData.affect" sheetId="2" r:id="rId3"/>
+    <sheet name="AllData.pupil" sheetId="3" r:id="rId4"/>
+    <sheet name="AllData.EDA" sheetId="5" r:id="rId5"/>
+    <sheet name="AllData.EMG" sheetId="6" r:id="rId6"/>
+    <sheet name="biopacdata" sheetId="7" r:id="rId7"/>
+    <sheet name="PupilData" sheetId="9" r:id="rId8"/>
+    <sheet name="AllGazeData" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>induction</t>
   </si>
@@ -363,11 +369,188 @@
   <si>
     <t>The naming of variables corresponds to the naming in "trialinfo".</t>
   </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Data preprocessing settings</t>
+  </si>
+  <si>
+    <t>Contains the preprocessed pupil diameter response during the induction (10s) and subsequent fixation (1s). Only contains data from happy/sad/neutral inductions.</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>Contains the preprocessed pupil diameter response of anger/fear/neutral inductions (exploratory studies only)</t>
+  </si>
+  <si>
+    <t>Electrodermal activity (EDA) preprocessing settings</t>
+  </si>
+  <si>
+    <t>Contains the homologous data for the anger/fear/neutral induction data (exploratory studies only)</t>
+  </si>
+  <si>
+    <t>Contains the preprocessed skin conductance response data during the induction (-1s to +20s). Only contains data from happy/sad/neutral inductions.</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>Contains the sample numbers of the start and end of the epoch within the raw Biopac data file.</t>
+  </si>
+  <si>
+    <t>pspsm_amplitudes</t>
+  </si>
+  <si>
+    <t>Contains the quantifications of the emotion induction-evoked skin conductance responses, fitted with with psychophysiological modelling.</t>
+  </si>
+  <si>
+    <t>Electromyography (EMG) preprocessing settings</t>
+  </si>
+  <si>
+    <t>zygomaticus</t>
+  </si>
+  <si>
+    <t>Contains the preprocessed activity of the zygomaticus during the induction (-3s to +12s). Only contains data from happy/sad/neutral inductions.</t>
+  </si>
+  <si>
+    <t>corrugator</t>
+  </si>
+  <si>
+    <t>Contains the preprocessed activity of the corrugator during the induction (-3s to +12s). Only contains data from happy/sad/neutral inductions.</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>raw data as recorded with the BIOPAC device and AckNowledge software</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>inter-stimulus interval (1 ms)</t>
+  </si>
+  <si>
+    <t>isi_units</t>
+  </si>
+  <si>
+    <t>milliseconds</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>original data labels entered during the recording session</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>microvolts for EMG, volts for  the trigger, microsiemens for EDA</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timestamp in millisecond</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>quality of the signal; 7 is good</t>
+  </si>
+  <si>
+    <t>rawX</t>
+  </si>
+  <si>
+    <t>raw X-coordinate of the gaze</t>
+  </si>
+  <si>
+    <t>rawY</t>
+  </si>
+  <si>
+    <t>raw Y-coordinate of the gaze</t>
+  </si>
+  <si>
+    <t>LEyePsize</t>
+  </si>
+  <si>
+    <t>left eye pupil diameter size</t>
+  </si>
+  <si>
+    <t>REyePsize</t>
+  </si>
+  <si>
+    <t>right eye pupil diameter size</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>experimental context</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>pupil_X</t>
+  </si>
+  <si>
+    <t>gaze X-coordinates during choice trial</t>
+  </si>
+  <si>
+    <t>pupil_Y</t>
+  </si>
+  <si>
+    <t>gaze Y-coordinates during choice trial</t>
+  </si>
+  <si>
+    <t>badsamples</t>
+  </si>
+  <si>
+    <t>outofbounds</t>
+  </si>
+  <si>
+    <t>fraction of the samples that are rejected (e.g. due to blinks)</t>
+  </si>
+  <si>
+    <t>fraction of the samples where the gaze is out of bounds</t>
+  </si>
+  <si>
+    <t>smoothed_gaze</t>
+  </si>
+  <si>
+    <t>gaze locations on screen (first column) and gaze density after convolution of each gaze sample with a smoothing kernel</t>
+  </si>
+  <si>
+    <t>i_leftreward</t>
+  </si>
+  <si>
+    <t>numbers of the samples where the gaze was labelled as focused on the left reward</t>
+  </si>
+  <si>
+    <t>i_rightreward</t>
+  </si>
+  <si>
+    <t>numbers of the samples where the gaze was labelled as focused on the right reward</t>
+  </si>
+  <si>
+    <t>i_leftcost</t>
+  </si>
+  <si>
+    <t>numbers of the samples where the gaze was labelled as focused on the left cost</t>
+  </si>
+  <si>
+    <t>numbers of the samples where the gaze was labelled as focused on the right cost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,10 +596,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,11 +895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -875,11 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,13 +1173,451 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1523FF84-EF0A-41D7-90ED-8218508EF1CD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D764A8D7-8CAD-4E8A-A1F4-926388DCFEE1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361B5718-7A18-4001-8B7C-7EBB28C055D3}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="106.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F72F0-B772-434A-BA47-18889444E773}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FDEF0D-6EC1-4724-910B-A901FC66F941}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="122.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dataset variables explainer.xlsx
+++ b/Dataset variables explainer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rheerema\Documents\MATLAB\MoodChoicePhysiology2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roeland\Documents\MATLAB\MoodChoicePhysiology2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3CE59-E3B6-4E51-94D0-2C5254A40672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="9510" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="AllData.trialinfo" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t>induction</t>
   </si>
@@ -546,11 +545,17 @@
   <si>
     <t>numbers of the samples where the gaze was labelled as focused on the right cost</t>
   </si>
+  <si>
+    <t>ind_trialno</t>
+  </si>
+  <si>
+    <t>Choice trial number following the most recent emotion induction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,11 +900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,113 +939,121 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1051,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1074,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1173,7 +1186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1226,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1523FF84-EF0A-41D7-90ED-8218508EF1CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1295,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D764A8D7-8CAD-4E8A-A1F4-926388DCFEE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1364,10 +1377,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361B5718-7A18-4001-8B7C-7EBB28C055D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1431,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F72F0-B772-434A-BA47-18889444E773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1524,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FDEF0D-6EC1-4724-910B-A901FC66F941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">

--- a/Dataset variables explainer.xlsx
+++ b/Dataset variables explainer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roeland\Documents\MATLAB\MoodChoicePhysiology2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rheerema\Documents\MATLAB\MoodChoicePhysiology2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86DBAC9-62F6-4DEE-88C7-27231E26DC11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="9510" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllData.trialinfo" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>induction</t>
   </si>
@@ -516,15 +517,6 @@
     <t>fraction of the samples that are rejected (e.g. due to blinks)</t>
   </si>
   <si>
-    <t>fraction of the samples where the gaze is out of bounds</t>
-  </si>
-  <si>
-    <t>smoothed_gaze</t>
-  </si>
-  <si>
-    <t>gaze locations on screen (first column) and gaze density after convolution of each gaze sample with a smoothing kernel</t>
-  </si>
-  <si>
     <t>i_leftreward</t>
   </si>
   <si>
@@ -550,12 +542,15 @@
   </si>
   <si>
     <t>Choice trial number following the most recent emotion induction</t>
+  </si>
+  <si>
+    <t>fraction of the samples where the gaze is out of bounds of the screen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,10 +895,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -939,10 +934,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1087,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1186,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1239,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1308,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1377,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1444,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1537,11 +1532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,47 +1582,39 @@
         <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
         <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
         <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
